--- a/sofaplayer/Serie_A/Bologna_stats.xlsx
+++ b/sofaplayer/Serie_A/Bologna_stats.xlsx
@@ -2808,317 +2808,317 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Benjamín Domínguez</t>
+          <t>Federico Bernardeschi</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1162611</v>
+        <v>294597</v>
       </c>
       <c r="E7" t="n">
-        <v>6.44</v>
+        <v>6.86875</v>
       </c>
       <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>541</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8987000000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>541</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.19079349</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>392</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>214</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>85.258964143426</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>149</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>94</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>75.75757575757601</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>54.166666666667</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>49.230769230769</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>98</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>37</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
+      <c r="CC7" t="n">
+        <v>33</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>19</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>30</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>33</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>33</v>
+      </c>
+      <c r="DA7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
-        <v>421</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5582</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.23352834</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>84.782608695652</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>36.764705882353</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>41.818181818182</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>15.384615384615</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>65</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>14</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>15</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>43</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>2</v>
-      </c>
       <c r="DB7" t="n">
-        <v>28.571428571429</v>
+        <v>83.333333333333</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="DG7" t="n">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2290169</v>
+        <v>2166280</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -3164,317 +3164,317 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Federico Bernardeschi</t>
+          <t>Benjamín Domínguez</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>294597</v>
+        <v>1162611</v>
       </c>
       <c r="E8" t="n">
-        <v>6.86875</v>
+        <v>6.44</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>421</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5582</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.23352834</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>78</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>84.782608695652</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>92</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>541</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8987000000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>541</v>
-      </c>
-      <c r="M8" t="n">
-        <v>16</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="AR8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.19079349</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>392</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
         <v>3</v>
       </c>
-      <c r="AD8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>214</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>85.258964143426</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>36.764705882353</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>41.818181818182</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>15.384615384615</v>
+      </c>
+      <c r="BG8" t="n">
         <v>65</v>
       </c>
-      <c r="AI8" t="n">
-        <v>149</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>94</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>75.75757575757601</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="BH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB8" t="n">
         <v>12</v>
       </c>
-      <c r="AN8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP8" t="n">
+      <c r="CC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD8" t="n">
         <v>6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>54.166666666667</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>49.230769230769</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>98</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>2</v>
       </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>37</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
+      <c r="CK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
         <v>7</v>
       </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
+      <c r="CS8" t="n">
+        <v>15</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>43</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA8" t="n">
         <v>2</v>
       </c>
-      <c r="BZ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>33</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>19</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>24</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>30</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>33</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>33</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>5</v>
-      </c>
       <c r="DB8" t="n">
-        <v>83.333333333333</v>
+        <v>28.571428571429</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="DG8" t="n">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2166280</v>
+        <v>2290169</v>
       </c>
       <c r="DK8" t="inlineStr">
         <is>

--- a/sofaplayer/Serie_A/Bologna_stats.xlsx
+++ b/sofaplayer/Serie_A/Bologna_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>1116577</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8857142857143</v>
+        <v>6.9136363636364</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1329</v>
+        <v>1412</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2579</v>
+        <v>4.5943</v>
       </c>
       <c r="L2" t="n">
-        <v>221.5</v>
+        <v>201.71428571429</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>17.142857142857</v>
+        <v>18.918918918919</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -1101,40 +1101,40 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.60554847</v>
+        <v>0.63985537</v>
       </c>
       <c r="AB2" t="n">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AF2" t="n">
+        <v>75.87719298245599</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>228</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>113</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL2" t="n">
         <v>75</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>216</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>56</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>106</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>61</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>77.272727272727</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AS2" t="n">
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -1173,37 +1173,37 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>60</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BA2" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
-        <v>44.512195121951</v>
+        <v>44.692737430168</v>
       </c>
       <c r="BC2" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="BD2" t="n">
-        <v>46.078431372549</v>
+        <v>47.272727272727</v>
       </c>
       <c r="BE2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BF2" t="n">
-        <v>41.935483870968</v>
+        <v>40.579710144928</v>
       </c>
       <c r="BG2" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="BH2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BJ2" t="n">
         <v>4</v>
@@ -1221,22 +1221,22 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>144.6</v>
+        <v>152.1</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CA2" t="n">
         <v>5</v>
       </c>
       <c r="CB2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CC2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK2" t="n">
         <v>4</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS2" t="n">
         <v>17</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>15</v>
       </c>
       <c r="CT2" t="n">
         <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="CV2" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DA2" t="n">
         <v>6</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="DG2" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,112 +1747,112 @@
         <v>1065261</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7266666666667</v>
+        <v>6.71875</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
+        <v>945</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5227</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" t="n">
-        <v>871</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2819</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.23797225</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>484</v>
+      </c>
+      <c r="AC4" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.09958125</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>445</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2</v>
-      </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AF4" t="n">
-        <v>83.408071748879</v>
+        <v>82.426778242678</v>
       </c>
       <c r="AG4" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="AH4" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK4" t="n">
         <v>5</v>
       </c>
       <c r="AL4" t="n">
-        <v>31.25</v>
+        <v>27.777777777778</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>28.125</v>
+        <v>29.411764705882</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1864,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="AR4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1885,37 +1885,37 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
-        <v>53.191489361702</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BA4" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BB4" t="n">
-        <v>52.898550724638</v>
+        <v>53.020134228188</v>
       </c>
       <c r="BC4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BD4" t="n">
-        <v>55</v>
+        <v>55.46875</v>
       </c>
       <c r="BE4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF4" t="n">
-        <v>38.888888888889</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BG4" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="BH4" t="n">
         <v>14</v>
       </c>
       <c r="BI4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BJ4" t="n">
         <v>2</v>
@@ -1933,28 +1933,28 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>100.9</v>
+        <v>107.5</v>
       </c>
       <c r="BR4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CB4" t="n">
         <v>15</v>
       </c>
       <c r="CC4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CD4" t="n">
         <v>9</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK4" t="n">
         <v>2</v>
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CS4" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CT4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CU4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CV4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="DA4" t="n">
         <v>9</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="DG4" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>793645</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8772727272727</v>
+        <v>6.8565217391304</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
         <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>5.7382</v>
       </c>
       <c r="L6" t="n">
-        <v>198.85714285714</v>
+        <v>200.71428571429</v>
       </c>
       <c r="M6" t="n">
         <v>50</v>
@@ -2525,28 +2525,28 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.82250985</v>
+        <v>0.8225152100000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF6" t="n">
-        <v>69.459459459459</v>
+        <v>69.541778975741</v>
       </c>
       <c r="AG6" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="n">
         <v>176</v>
@@ -2555,10 +2555,10 @@
         <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>52.830188679245</v>
+        <v>53.703703703704</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -2576,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS6" t="n">
         <v>5</v>
@@ -2600,28 +2600,28 @@
         <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>50</v>
+        <v>48.979591836735</v>
       </c>
       <c r="BA6" t="n">
         <v>85</v>
       </c>
       <c r="BB6" t="n">
-        <v>53.459119496855</v>
+        <v>52.795031055901</v>
       </c>
       <c r="BC6" t="n">
         <v>63</v>
       </c>
       <c r="BD6" t="n">
-        <v>52.066115702479</v>
+        <v>51.639344262295</v>
       </c>
       <c r="BE6" t="n">
         <v>22</v>
       </c>
       <c r="BF6" t="n">
-        <v>57.894736842105</v>
+        <v>56.410256410256</v>
       </c>
       <c r="BG6" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BH6" t="n">
         <v>14</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>151.3</v>
+        <v>157.7</v>
       </c>
       <c r="BR6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS6" t="n">
         <v>8</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CT6" t="n">
         <v>33</v>
       </c>
       <c r="CU6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CV6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="CZ6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DA6" t="n">
         <v>8</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DG6" t="n">
         <v>259</v>
@@ -2815,16 +2815,16 @@
         <v>294597</v>
       </c>
       <c r="E7" t="n">
-        <v>6.86875</v>
+        <v>6.8647058823529</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,22 +2833,22 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8987000000000001</v>
+        <v>1.0837</v>
       </c>
       <c r="L7" t="n">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="M7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.25</v>
+        <v>5.2631578947368</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2878,49 +2878,49 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.19079349</v>
+        <v>1.32925349</v>
       </c>
       <c r="AB7" t="n">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AF7" t="n">
-        <v>85.258964143426</v>
+        <v>84.92647058823501</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AJ7" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>75.75757575757601</v>
+        <v>78.947368421053</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>40.625</v>
       </c>
       <c r="AO7" t="n">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
         <v>4</v>
@@ -2953,40 +2953,40 @@
         <v>1</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>54.166666666667</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BA7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>49.230769230769</v>
+        <v>47.887323943662</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD7" t="n">
-        <v>50</v>
+        <v>49.152542372881</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>45.454545454545</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BG7" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="BH7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" t="n">
         <v>2</v>
@@ -3001,28 +3001,28 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>109.9</v>
+        <v>116.7</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>2</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB7" t="n">
         <v>10</v>
       </c>
       <c r="CC7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="CD7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CS7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CT7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CU7" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="DA7" t="n">
         <v>5</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="DG7" t="n">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1162611</v>
       </c>
       <c r="E8" t="n">
-        <v>6.44</v>
+        <v>6.4090909090909</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.23352834</v>
+        <v>0.23353658</v>
       </c>
       <c r="AB8" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3249,16 +3249,16 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>84.782608695652</v>
+        <v>81.632653061224</v>
       </c>
       <c r="AG8" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>61</v>
@@ -3270,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3288,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -3312,28 +3312,28 @@
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>33.333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="BA8" t="n">
         <v>25</v>
       </c>
       <c r="BB8" t="n">
-        <v>36.764705882353</v>
+        <v>34.722222222222</v>
       </c>
       <c r="BC8" t="n">
         <v>23</v>
       </c>
       <c r="BD8" t="n">
-        <v>41.818181818182</v>
+        <v>39.655172413793</v>
       </c>
       <c r="BE8" t="n">
         <v>2</v>
       </c>
       <c r="BF8" t="n">
-        <v>15.384615384615</v>
+        <v>14.285714285714</v>
       </c>
       <c r="BG8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH8" t="n">
         <v>6</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>64.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="BR8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS8" t="n">
         <v>3</v>
       </c>
       <c r="BT8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3447,16 +3447,16 @@
         <v>7</v>
       </c>
       <c r="CS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT8" t="n">
         <v>6</v>
       </c>
       <c r="CU8" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA8" t="n">
         <v>2</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DG8" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>814882</v>
       </c>
       <c r="E9" t="n">
-        <v>7.1588235294118</v>
+        <v>7.1444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3545,22 +3545,22 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3217</v>
+        <v>0.4631</v>
       </c>
       <c r="L9" t="n">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,40 +3593,40 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.14147965</v>
+        <v>1.20290465</v>
       </c>
       <c r="AB9" t="n">
-        <v>905</v>
+        <v>960</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="AF9" t="n">
-        <v>86.63967611336</v>
+        <v>86.438529784537</v>
       </c>
       <c r="AG9" t="n">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="AH9" t="n">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AI9" t="n">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="AJ9" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="AK9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="n">
-        <v>69.62962962963</v>
+        <v>69.93006993007</v>
       </c>
       <c r="AM9" t="n">
         <v>10</v>
@@ -3638,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
         <v>5</v>
@@ -3665,22 +3665,22 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA9" t="n">
         <v>50</v>
       </c>
-      <c r="BA9" t="n">
-        <v>47</v>
-      </c>
       <c r="BB9" t="n">
-        <v>56.626506024096</v>
+        <v>57.471264367816</v>
       </c>
       <c r="BC9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BD9" t="n">
-        <v>58.461538461538</v>
+        <v>59.420289855072</v>
       </c>
       <c r="BE9" t="n">
         <v>9</v>
@@ -3689,7 +3689,7 @@
         <v>50</v>
       </c>
       <c r="BG9" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="BH9" t="n">
         <v>11</v>
@@ -3713,28 +3713,28 @@
         <v>2</v>
       </c>
       <c r="BO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>121.7</v>
+        <v>128.6</v>
       </c>
       <c r="BR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA9" t="n">
         <v>9</v>
       </c>
       <c r="CB9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC9" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="CD9" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK9" t="n">
         <v>2</v>
@@ -3800,16 +3800,16 @@
         <v>100</v>
       </c>
       <c r="CR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CT9" t="n">
         <v>32</v>
       </c>
       <c r="CU9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CV9" t="n">
         <v>9</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="DA9" t="n">
         <v>6</v>
       </c>
       <c r="DB9" t="n">
-        <v>28.571428571429</v>
+        <v>27.272727272727</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="DG9" t="n">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>907152</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7411764705882</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0.5737</v>
       </c>
       <c r="L10" t="n">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="M10" t="n">
         <v>10</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.09106634</v>
+        <v>1.09299289</v>
       </c>
       <c r="AB10" t="n">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
@@ -3961,22 +3961,22 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.522427440633</v>
+        <v>88.39634941329901</v>
       </c>
       <c r="AG10" t="n">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="AH10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AI10" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AJ10" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK10" t="n">
         <v>35</v>
@@ -4027,10 +4027,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB10" t="n">
-        <v>46.491228070175</v>
+        <v>46.95652173913</v>
       </c>
       <c r="BC10" t="n">
         <v>34</v>
@@ -4039,13 +4039,13 @@
         <v>48.571428571429</v>
       </c>
       <c r="BE10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF10" t="n">
-        <v>43.181818181818</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG10" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BH10" t="n">
         <v>27</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>114.6</v>
+        <v>121.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="CC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CD10" t="n">
         <v>7</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DG10" t="n">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>115516</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7823529411765</v>
+        <v>6.7833333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>1225</v>
+        <v>1315</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1041</v>
+        <v>0.1252</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.72364171</v>
+        <v>0.72982507</v>
       </c>
       <c r="AB11" t="n">
-        <v>918</v>
+        <v>985</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,28 +4317,28 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="AF11" t="n">
-        <v>86.137281292059</v>
+        <v>86.284289276808</v>
       </c>
       <c r="AG11" t="n">
-        <v>743</v>
+        <v>802</v>
       </c>
       <c r="AH11" t="n">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="AI11" t="n">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="AJ11" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="n">
-        <v>53.521126760563</v>
+        <v>53.424657534247</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -4347,16 +4347,16 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
       </c>
       <c r="AR11" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AS11" t="n">
         <v>13</v>
@@ -4365,7 +4365,7 @@
         <v>19</v>
       </c>
       <c r="AU11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4383,31 +4383,31 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA11" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BB11" t="n">
-        <v>52.727272727273</v>
+        <v>53.982300884956</v>
       </c>
       <c r="BC11" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BD11" t="n">
-        <v>59.550561797753</v>
+        <v>60.43956043956</v>
       </c>
       <c r="BE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF11" t="n">
-        <v>23.809523809524</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BG11" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="BH11" t="n">
         <v>13</v>
       </c>
       <c r="BI11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4425,22 +4425,22 @@
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>115.3</v>
+        <v>122.1</v>
       </c>
       <c r="BR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         <v>3</v>
       </c>
       <c r="CA11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB11" t="n">
         <v>6</v>
       </c>
       <c r="CC11" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="CD11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CE11" t="n">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK11" t="n">
         <v>4</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DA11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DB11" t="n">
-        <v>60.526315789474</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="DG11" t="n">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>826064</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6777777777778</v>
+        <v>6.6578947368421</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>2.053</v>
       </c>
       <c r="L12" t="n">
-        <v>262.5</v>
+        <v>265.75</v>
       </c>
       <c r="M12" t="n">
         <v>26</v>
@@ -4661,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.95683375</v>
+        <v>0.95862292</v>
       </c>
       <c r="AB12" t="n">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -4673,28 +4673,28 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AF12" t="n">
-        <v>71.68141592920399</v>
+        <v>72.222222222222</v>
       </c>
       <c r="AG12" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AH12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AJ12" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="n">
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -4712,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -4739,28 +4739,28 @@
         <v>31.578947368421</v>
       </c>
       <c r="BA12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB12" t="n">
-        <v>43.949044585987</v>
+        <v>42.944785276074</v>
       </c>
       <c r="BC12" t="n">
         <v>40</v>
       </c>
       <c r="BD12" t="n">
-        <v>40</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BE12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BF12" t="n">
-        <v>50.877192982456</v>
+        <v>51.724137931034</v>
       </c>
       <c r="BG12" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="BH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI12" t="n">
         <v>22</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>120.2</v>
+        <v>126.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
       </c>
       <c r="BT12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="CB12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CC12" t="n">
         <v>15</v>
@@ -4877,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="CU12" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="CV12" t="n">
         <v>28</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA12" t="n">
         <v>6</v>
@@ -4910,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="DG12" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI12" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>928104</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7157894736842</v>
+        <v>6.71</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.93235926</v>
+        <v>1.93235939</v>
       </c>
       <c r="AB14" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
@@ -5388,10 +5388,10 @@
         <v>447</v>
       </c>
       <c r="AF14" t="n">
-        <v>81.42076502732201</v>
+        <v>81.272727272727</v>
       </c>
       <c r="AG14" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AH14" t="n">
         <v>200</v>
@@ -5406,7 +5406,7 @@
         <v>31</v>
       </c>
       <c r="AL14" t="n">
-        <v>46.268656716418</v>
+        <v>45.588235294118</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -5454,13 +5454,13 @@
         <v>62</v>
       </c>
       <c r="BB14" t="n">
-        <v>49.206349206349</v>
+        <v>48.818897637795</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>49.514563106796</v>
+        <v>49.038461538462</v>
       </c>
       <c r="BE14" t="n">
         <v>11</v>
@@ -5469,10 +5469,10 @@
         <v>47.826086956522</v>
       </c>
       <c r="BG14" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BH14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI14" t="n">
         <v>13</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>127.6</v>
+        <v>134.2</v>
       </c>
       <c r="BR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
       </c>
       <c r="BT14" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>56</v>
       </c>
       <c r="CU14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CV14" t="n">
         <v>12</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DA14" t="n">
         <v>14</v>
@@ -5625,7 +5625,7 @@
         <v>221</v>
       </c>
       <c r="DG14" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>909991</v>
       </c>
       <c r="E15" t="n">
-        <v>6.59375</v>
+        <v>6.5823529411765</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>735</v>
+        <v>822</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,19 +5681,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2494</v>
+        <v>0.5649</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5729,34 +5729,34 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.29523885</v>
+        <v>1.39139875</v>
       </c>
       <c r="AB15" t="n">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="AC15" t="n">
         <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AF15" t="n">
-        <v>88.741721854305</v>
+        <v>88.58024691358</v>
       </c>
       <c r="AG15" t="n">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AH15" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI15" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -5780,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AS15" t="n">
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
@@ -5801,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>63.636363636364</v>
+        <v>61.538461538462</v>
       </c>
       <c r="BA15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BB15" t="n">
-        <v>41.379310344828</v>
+        <v>40.659340659341</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
-        <v>53.061224489796</v>
+        <v>50.943396226415</v>
       </c>
       <c r="BE15" t="n">
         <v>10</v>
@@ -5825,10 +5825,10 @@
         <v>26.315789473684</v>
       </c>
       <c r="BG15" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI15" t="n">
         <v>12</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="BK15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5849,22 +5849,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="BR15" t="n">
         <v>17</v>
       </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>16</v>
-      </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA15" t="n">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK15" t="n">
         <v>5</v>
@@ -5936,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CS15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CT15" t="n">
         <v>5</v>
       </c>
       <c r="CU15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CV15" t="n">
         <v>28</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="DG15" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>818481</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8875</v>
+        <v>6.8941176470588</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>1205</v>
+        <v>1295</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -6040,7 +6040,7 @@
         <v>0.8941</v>
       </c>
       <c r="L16" t="n">
-        <v>1205</v>
+        <v>1295</v>
       </c>
       <c r="M16" t="n">
         <v>7</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.24063493</v>
+        <v>0.2502411</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6097,28 +6097,28 @@
         <v>4</v>
       </c>
       <c r="AE16" t="n">
-        <v>749</v>
+        <v>804</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.639053254438</v>
+        <v>88.64388092613</v>
       </c>
       <c r="AG16" t="n">
-        <v>845</v>
+        <v>907</v>
       </c>
       <c r="AH16" t="n">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="AI16" t="n">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AL16" t="n">
-        <v>62</v>
+        <v>64.150943396226</v>
       </c>
       <c r="AM16" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>100</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>22</v>
@@ -6136,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
@@ -6163,31 +6163,31 @@
         <v>100</v>
       </c>
       <c r="BA16" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>52.222222222222</v>
+        <v>53.684210526316</v>
       </c>
       <c r="BC16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BD16" t="n">
-        <v>57.627118644068</v>
+        <v>58.064516129032</v>
       </c>
       <c r="BE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BF16" t="n">
-        <v>41.935483870968</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BG16" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BH16" t="n">
         <v>12</v>
       </c>
       <c r="BI16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ16" t="n">
         <v>1</v>
@@ -6205,22 +6205,22 @@
         <v>3</v>
       </c>
       <c r="BO16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>110.2</v>
+        <v>117.2</v>
       </c>
       <c r="BR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,10 +6247,10 @@
         <v>4</v>
       </c>
       <c r="CC16" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CD16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK16" t="n">
         <v>3</v>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CV16" t="n">
         <v>18</v>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="DA16" t="n">
         <v>11</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="DG16" t="n">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="DH16" t="n">
         <v>6</v>
       </c>
       <c r="DI16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ16" t="n">
         <v>2166272</v>
@@ -6375,16 +6375,16 @@
         <v>902031</v>
       </c>
       <c r="E17" t="n">
-        <v>6.69</v>
+        <v>6.7090909090909</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1439</v>
+        <v>0.1838</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.29780085</v>
+        <v>0.31738545</v>
       </c>
       <c r="AB17" t="n">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,37 +6453,37 @@
         <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="n">
-        <v>74.62686567164199</v>
+        <v>76.83615819209</v>
       </c>
       <c r="AG17" t="n">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI17" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="n">
-        <v>44.444444444444</v>
+        <v>46.153846153846</v>
       </c>
       <c r="AM17" t="n">
         <v>4</v>
       </c>
       <c r="AN17" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP17" t="n">
         <v>4</v>
@@ -6492,16 +6492,16 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -6513,37 +6513,37 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41.666666666667</v>
+        <v>56.25</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BB17" t="n">
-        <v>60</v>
+        <v>61.363636363636</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
       <c r="BE17" t="n">
         <v>2</v>
       </c>
       <c r="BF17" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BG17" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="BH17" t="n">
         <v>6</v>
       </c>
       <c r="BI17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6561,22 +6561,22 @@
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>66.90000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA17" t="n">
         <v>1</v>
@@ -6603,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CD17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6651,16 +6651,16 @@
         <v>3</v>
       </c>
       <c r="CS17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="CT17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CV17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="DA17" t="n">
         <v>3</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="DG17" t="n">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>855829</v>
       </c>
       <c r="E18" t="n">
-        <v>6.91</v>
+        <v>6.9285714285714</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>1546</v>
+        <v>1636</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6749,13 +6749,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3584</v>
+        <v>0.3982</v>
       </c>
       <c r="L18" t="n">
-        <v>1546</v>
+        <v>1636</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12.5</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6797,64 +6797,64 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.51442973</v>
+        <v>3.08515673</v>
       </c>
       <c r="AB18" t="n">
-        <v>1383</v>
+        <v>1465</v>
       </c>
       <c r="AC18" t="n">
         <v>3</v>
       </c>
       <c r="AD18" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AE18" t="n">
-        <v>762</v>
+        <v>811</v>
       </c>
       <c r="AF18" t="n">
-        <v>82.826086956522</v>
+        <v>82.755102040816</v>
       </c>
       <c r="AG18" t="n">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="AI18" t="n">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="AJ18" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AK18" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
-        <v>50.967741935484</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
         <v>35</v>
       </c>
       <c r="AN18" t="n">
-        <v>28.688524590164</v>
+        <v>28.455284552846</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
@@ -6875,28 +6875,28 @@
         <v>50</v>
       </c>
       <c r="BA18" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BB18" t="n">
-        <v>58.474576271186</v>
+        <v>58.677685950413</v>
       </c>
       <c r="BC18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BD18" t="n">
-        <v>58.974358974359</v>
+        <v>58.75</v>
       </c>
       <c r="BE18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF18" t="n">
-        <v>57.5</v>
+        <v>58.536585365854</v>
       </c>
       <c r="BG18" t="n">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="BH18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI18" t="n">
         <v>17</v>
@@ -6917,28 +6917,28 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>138.2</v>
+        <v>145.5</v>
       </c>
       <c r="BR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA18" t="n">
         <v>3</v>
@@ -6959,10 +6959,10 @@
         <v>5</v>
       </c>
       <c r="CC18" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="CD18" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK18" t="n">
         <v>3</v>
@@ -7004,16 +7004,16 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CS18" t="n">
         <v>8</v>
       </c>
       <c r="CT18" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CU18" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CV18" t="n">
         <v>17</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="DA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>64</v>
+        <v>65.384615384615</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,16 +7046,16 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="DG18" t="n">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ18" t="n">
         <v>2191956</v>
@@ -7087,16 +7087,16 @@
         <v>1085913</v>
       </c>
       <c r="E19" t="n">
-        <v>6.5818181818182</v>
+        <v>6.625</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0838219</v>
+        <v>0.0858983</v>
       </c>
       <c r="AB19" t="n">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7165,28 +7165,28 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AF19" t="n">
-        <v>85.86118251928001</v>
+        <v>86.416861826698</v>
       </c>
       <c r="AG19" t="n">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="AH19" t="n">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AI19" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>33.333333333333</v>
+        <v>32.692307692308</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7198,19 +7198,19 @@
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -7231,28 +7231,28 @@
         <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BB19" t="n">
-        <v>52.272727272727</v>
+        <v>51.578947368421</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
-        <v>51.351351351351</v>
+        <v>52.380952380952</v>
       </c>
       <c r="BE19" t="n">
         <v>27</v>
       </c>
       <c r="BF19" t="n">
-        <v>52.941176470588</v>
+        <v>50.943396226415</v>
       </c>
       <c r="BG19" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BH19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI19" t="n">
         <v>3</v>
@@ -7273,22 +7273,22 @@
         <v>2</v>
       </c>
       <c r="BO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="BR19" t="n">
         <v>12</v>
       </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>11</v>
-      </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="CC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CD19" t="n">
         <v>8</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK19" t="n">
         <v>2</v>
@@ -7369,10 +7369,10 @@
         <v>2</v>
       </c>
       <c r="CU19" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CV19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7384,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="DA19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DB19" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="DG19" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ19" t="n">
         <v>2166268</v>
@@ -8865,16 +8865,16 @@
         <v>44906</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6</v>
+        <v>6.6384615384615</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01671834</v>
+        <v>0.01751785</v>
       </c>
       <c r="AB24" t="n">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8941,28 +8941,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AF24" t="n">
-        <v>74.82185273159099</v>
+        <v>74.29805615550799</v>
       </c>
       <c r="AG24" t="n">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="AH24" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="AI24" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AL24" t="n">
-        <v>36.25</v>
+        <v>35.393258426966</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8980,13 +8980,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9007,31 +9007,31 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>88.888888888889</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>75</v>
+      </c>
+      <c r="BE24" t="n">
         <v>5</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>3</v>
       </c>
       <c r="BF24" t="n">
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="BH24" t="n">
         <v>1</v>
       </c>
       <c r="BI24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9043,28 +9043,28 @@
         <v>1</v>
       </c>
       <c r="BM24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN24" t="n">
         <v>3</v>
       </c>
       <c r="BO24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>79.2</v>
+        <v>86.3</v>
       </c>
       <c r="BR24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="BU24" t="n">
         <v>1</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9106,19 +9106,19 @@
         <v>2</v>
       </c>
       <c r="CH24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CI24" t="n">
         <v>6</v>
       </c>
       <c r="CJ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK24" t="n">
         <v>1</v>
       </c>
       <c r="CL24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CM24" t="n">
         <v>5</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>5</v>
       </c>
       <c r="DF24" t="n">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="DG24" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="DH24" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-0.0014000000000001</v>
+        <v>-0.6009</v>
       </c>
     </row>
     <row r="25">
